--- a/medicine/Mort/Cimetière_anglais_de_Rome/Cimetière_anglais_de_Rome.xlsx
+++ b/medicine/Mort/Cimetière_anglais_de_Rome/Cimetière_anglais_de_Rome.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_anglais_de_Rome</t>
+          <t>Cimetière_anglais_de_Rome</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cimetière anglais de Rome (cimitero degli Inglesi) ou encore « cimetière non catholique de Rome » (italien : Cimitero acattolico di Roma) ; « cimetière des Protestants » (cimitero dei protestanti) ; « cimetière du Testaccio » (cimitero del Testaccio) ; « cimetière des Artistes et Poètes » (cimitero degli artisti e dei poeti)[1]) se trouve à Rome, dans le quartier Testaccio, à proximité de Porta San Paolo à côté de la Pyramide de Cestius et non loin du cimetière militaire de Rome.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cimetière anglais de Rome (cimitero degli Inglesi) ou encore « cimetière non catholique de Rome » (italien : Cimitero acattolico di Roma) ; « cimetière des Protestants » (cimitero dei protestanti) ; « cimetière du Testaccio » (cimitero del Testaccio) ; « cimetière des Artistes et Poètes » (cimitero degli artisti e dei poeti)) se trouve à Rome, dans le quartier Testaccio, à proximité de Porta San Paolo à côté de la Pyramide de Cestius et non loin du cimetière militaire de Rome.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_anglais_de_Rome</t>
+          <t>Cimetière_anglais_de_Rome</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La naissance du cimetière est due au bannissement au sein des sépultures chrétiennes des personnes non catholiques ou suicidées, lesquelles ont été progressivement déplacées « hors les murs » de Rome, en ce lieu.
 La plus ancienne sépulture connue est celle d'un étudiant de l'Université d'Oxford, nommé Langton datée de 1738.
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_anglais_de_Rome</t>
+          <t>Cimetière_anglais_de_Rome</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,7 +562,9 @@
           <t>Principales sépultures</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Arthur Aitken (en) (1861 – 1924), général anglais
@@ -561,7 +577,7 @@
 Karl Brioullov (1799-1852), peintre russe
 Andrea Camilleri (1925-2019), écrivain italien
 Asmus Jacob Carstens (1754-1798), peintre allemand
-William Gordon Coesvelt Jr. (1766-1844) banquier diplomate collectionneur anglais d'origine hollandaise[2].
+William Gordon Coesvelt Jr. (1766-1844) banquier diplomate collectionneur anglais d'origine hollandaise.
 Gregory Corso (1930-2001), poète américain de la Beat Generation
 Richard Henry Dana, Jr. (1815-1882), écrivain et navigateur américain
 Luce d'Eramo (1925-2001), écrivain italien
